--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2159689.126975468</v>
+        <v>2155059.998055558</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8586288.707843153</v>
+        <v>8583928.790281478</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>304.2146788900618</v>
+        <v>69.41325765719795</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -713,19 +713,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>102.4290392774767</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348900007</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>72.55567497641739</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>85.30908737138756</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>293.9100809018165</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.9014967842213</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023834009</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707462</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.6627525655635</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1142,16 +1142,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
-        <v>86.25200930100219</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>13.29659974895814</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.1408176274397</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1379,16 +1379,16 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098707</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219472</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507318</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627326</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>74.07584602384532</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.5937764228768</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879336</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453486</v>
+        <v>20.9239119118958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443498</v>
+        <v>48.81858568179592</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504633</v>
+        <v>67.32610467782425</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074571</v>
+        <v>52.47323292810665</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258544</v>
+        <v>38.04694813994638</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546455</v>
+        <v>37.97339019282549</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523181</v>
+        <v>39.72284161259276</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762395</v>
+        <v>50.54167953498489</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419599</v>
+        <v>37.89393170155694</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536792</v>
+        <v>15.73364728272887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982384</v>
+        <v>6.632145647184785</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535116</v>
+        <v>84.7580891527121</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875322</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277545</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380501</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357228</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596442</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370839</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369162</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3746,19 @@
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>106.2581909707459</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822794</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>183.3072773495826</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915763</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351693</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>109.9667971102788</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
         <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>143.5290007893334</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>510.0917957801908</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="C2" t="n">
-        <v>202.8042413457849</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>202.8042413457849</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8042413457849</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161668</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>138.4138119172016</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>497.3961679446634</v>
       </c>
       <c r="L2" t="n">
-        <v>546.1228674733288</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912866</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687142</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137463</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078513</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.52985563793</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.52985563793</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.52985563793</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.52985563793</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.077250570987</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.5865414915877</v>
+        <v>999.0496848552192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512723</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.550466580653</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580653</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851941</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851941</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.9508819365067</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>654.9508819365067</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>499.3177688390215</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>499.3177688390215</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>499.3177688390215</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>331.063714938467</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>654.9508819365067</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>654.9508819365067</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>654.9508819365067</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>654.9508819365067</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>654.9508819365067</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>654.9508819365067</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1519.535712367116</v>
+        <v>359.3535813976276</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.360210870047</v>
+        <v>62.47471179983322</v>
       </c>
       <c r="D5" t="n">
-        <v>740.9190820867145</v>
+        <v>62.47471179983322</v>
       </c>
       <c r="E5" t="n">
-        <v>338.335557203259</v>
+        <v>62.47471179983322</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161668</v>
+        <v>49.62067737021503</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>546.1228674733288</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>1065.680985183615</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1591.50387457947</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.50387457947</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137463</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078513</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078513</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.030458078513</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.030458078513</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="W5" t="n">
-        <v>1920.030458078513</v>
+        <v>1145.29689554397</v>
       </c>
       <c r="X5" t="n">
-        <v>1920.030458078513</v>
+        <v>755.8442904770264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.030458078513</v>
+        <v>359.3535813976276</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163357</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>454.913144576428</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979083</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>188.377686308796</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>63.9458801919278</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703882</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703882</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703882</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>526.056824435352</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>1051.879713831207</v>
+        <v>861.4042549562992</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544562</v>
+        <v>1118.128143219265</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135543</v>
+        <v>1619.294926214716</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848782</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527424</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898491</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031778</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817898</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572971</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.290950629191</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="C7" t="n">
-        <v>473.290950629191</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="D7" t="n">
-        <v>317.6578375317058</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="E7" t="n">
-        <v>317.6578375317058</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="F7" t="n">
-        <v>160.3319027446787</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="G7" t="n">
-        <v>160.3319027446787</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="H7" t="n">
-        <v>160.3319027446787</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703882</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>658.4989693204923</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>658.4989693204923</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="W7" t="n">
-        <v>658.4989693204923</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="X7" t="n">
-        <v>658.4989693204923</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="Y7" t="n">
-        <v>658.4989693204923</v>
+        <v>226.5097091700056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.6531569252</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.47765542813</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>963.0365266447982</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>560.4530017613426</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>143.5585632913204</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>134.4362118197276</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
-        <v>134.4362118197276</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,13 +4808,13 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636597</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>2142.147902636597</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>2142.147902636597</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.3238676264566</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>386.3238676264566</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.3238676264566</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>423.7929329501244</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3034.383511434015</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>3034.383511434015</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2758.325157689491</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2463.813233909736</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>2162.263206117526</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.084366955101</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082786</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443718</v>
@@ -5188,7 +5188,7 @@
         <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362516</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757667</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469771</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852108</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553823</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359214</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252415</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042534</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463903</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>731.4357765463903</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>409.4820193635564</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993113</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.787060248589</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468834</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676624</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979807</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443715</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798492</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757666</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791397</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5452,16 +5452,16 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072208</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964837994</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924361</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964837994</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6230,19 +6230,19 @@
         <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,13 +6254,13 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420327</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,22 +6382,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674343</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.5275805474768</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855446</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267665</v>
+        <v>87.68547930209942</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2252.184354569788</v>
       </c>
       <c r="O32" t="n">
-        <v>2687.837340252621</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462113</v>
+        <v>3065.032496333759</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243448</v>
+        <v>3249.878056474708</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491228</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633126</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590206</v>
+        <v>341.6872565554795</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229138</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233326</v>
+        <v>250.2527302241127</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804391</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.289744491316</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886656</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806358</v>
+        <v>82.44278775748636</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>151.6460076354898</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359356</v>
+        <v>233.4810487454317</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097353</v>
+        <v>397.6086886192314</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515922</v>
+        <v>627.5238173231658</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231871</v>
+        <v>810.7134513543749</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964895</v>
+        <v>1088.287753884381</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381859</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279018</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569834</v>
+        <v>632.4821015969603</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378705</v>
+        <v>515.603631730008</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524179</v>
+        <v>409.6934228967161</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,16 +6968,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072216</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838002</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803429</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924211</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7196,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885586</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369564</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218797</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634908</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072649</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012507</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750505</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133145</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445237</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862317</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.15895616281</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532861</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918791</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161887</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194215</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330077</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983994</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974513</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1627.066081816728</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1331.331832309791</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1043.331955516592</v>
+        <v>756.4414835758394</v>
       </c>
       <c r="E41" t="n">
-        <v>738.1896826232701</v>
+        <v>649.1099775447825</v>
       </c>
       <c r="F41" t="n">
-        <v>418.7364961433814</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0149926215177</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215177</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.824731686509</v>
       </c>
       <c r="U41" t="n">
-        <v>2979.897034755326</v>
+        <v>2752.513254111241</v>
       </c>
       <c r="V41" t="n">
-        <v>2794.738168745647</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2521.180385704067</v>
+        <v>2234.289913763313</v>
       </c>
       <c r="X41" t="n">
-        <v>2229.169032627257</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1930.119575537992</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690443</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,22 +7570,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
         <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1627.066081816728</v>
+        <v>1409.247912944791</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.331832309791</v>
+        <v>1113.513663437855</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.331955516592</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>738.1896826232702</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>418.7364961433811</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.82473168651</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.159174380161</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2521.180385704067</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>2229.169032627257</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1930.119575537992</v>
+        <v>1712.301406666055</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022405</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160341</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>216.5843692742444</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>230.0467857572806</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507693</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N3" t="n">
-        <v>616.3211167565371</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>239.6472470098789</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>674.5312311030671</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507693</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>156.426070733625</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622971</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N6" t="n">
-        <v>237.4080337767471</v>
+        <v>344.6891717056473</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,16 +8456,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
-        <v>466.7144144634705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8532,19 +8532,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>237.5738335035115</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>301.854937525337</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.35770615252674</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000185</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749092</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>240.9640074587151</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-2.523373297056033e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>195.8326591936431</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812798</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>58.91162438370235</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149883</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812795</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>127.2932044218301</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746167.491037195</v>
+        <v>744964.3958096744</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746167.491037195</v>
+        <v>744964.3958096744</v>
       </c>
     </row>
     <row r="4">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715455.9794232511</v>
+        <v>715455.9794232512</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894058</v>
       </c>
       <c r="C2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894057</v>
       </c>
       <c r="D2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="E2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180381</v>
       </c>
       <c r="F2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180385</v>
       </c>
       <c r="G2" t="n">
         <v>559029.7520894062</v>
       </c>
       <c r="H2" t="n">
+        <v>559029.7520894066</v>
+      </c>
+      <c r="I2" t="n">
         <v>559029.7520894065</v>
       </c>
-      <c r="I2" t="n">
-        <v>559029.7520894062</v>
-      </c>
       <c r="J2" t="n">
-        <v>559029.7520894071</v>
+        <v>559029.7520894072</v>
       </c>
       <c r="K2" t="n">
         <v>559029.7520894071</v>
       </c>
       <c r="L2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="M2" t="n">
         <v>559029.7520894064</v>
       </c>
       <c r="N2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894062</v>
       </c>
       <c r="O2" t="n">
         <v>527666.7443870093</v>
       </c>
       <c r="P2" t="n">
-        <v>527666.7443870092</v>
+        <v>527666.7443870093</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602654</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.9558730144</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767012</v>
+        <v>46725.80335481241</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015675</v>
+        <v>18983.55983015682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614852</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614852</v>
+        <v>218972.6240101878</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936687</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>55320.40778255072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101650.3487054206</v>
+        <v>106001.7945197151</v>
       </c>
       <c r="C6" t="n">
-        <v>279645.6458397713</v>
+        <v>275650.8003962649</v>
       </c>
       <c r="D6" t="n">
-        <v>270590.2383682933</v>
+        <v>262853.9491449014</v>
       </c>
       <c r="E6" t="n">
-        <v>190954.4963309522</v>
+        <v>190845.9357768509</v>
       </c>
       <c r="F6" t="n">
-        <v>321407.4274686644</v>
+        <v>321298.8669145634</v>
       </c>
       <c r="G6" t="n">
         <v>298304.4429169254</v>
       </c>
       <c r="H6" t="n">
-        <v>327399.39878994</v>
+        <v>327399.3987899402</v>
       </c>
       <c r="I6" t="n">
-        <v>327399.3987899399</v>
+        <v>327399.3987899401</v>
       </c>
       <c r="J6" t="n">
-        <v>99313.75544019107</v>
+        <v>105830.0405947645</v>
       </c>
       <c r="K6" t="n">
         <v>321159.6303871577</v>
       </c>
       <c r="L6" t="n">
-        <v>282265.2834545685</v>
+        <v>278216.4462440961</v>
       </c>
       <c r="M6" t="n">
-        <v>284668.1218555714</v>
+        <v>283616.4268443832</v>
       </c>
       <c r="N6" t="n">
-        <v>327399.3987899396</v>
+        <v>327399.3987899398</v>
       </c>
       <c r="O6" t="n">
-        <v>302831.8975348456</v>
+        <v>302730.7265422572</v>
       </c>
       <c r="P6" t="n">
-        <v>321815.4573650023</v>
+        <v>321714.2863724139</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,19 +26713,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880683</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.368694841268</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208765</v>
+        <v>58.40725419351551</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165945</v>
+        <v>14.33013548902034</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769594</v>
+        <v>23.72944978769603</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559193</v>
+        <v>646.8007142757125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455248</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.368694841268</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>85.02906759203688</v>
+        <v>319.8304888249007</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>31.15233105165311</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408054</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>81.521106990093</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>148.0527739420606</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.33366558028223</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>265.8239973011007</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051411</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.26378867107</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>15.10072854372942</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
-        <v>50.70173643745763</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>140.7066242704314</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634527685</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29536,10 +29536,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>26.78466270502031</v>
+        <v>24.86974620214158</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>58.99686212484124</v>
+        <v>44.06419228855586</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>28.01250026485064</v>
+        <v>5.636002634528452</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155845</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023187</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561693122</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561693106</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>98.90453133189833</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>80.32173415955332</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N3" t="n">
-        <v>530.9490039023705</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>152.5638821905643</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>524.8061795053397</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>6.124623492699798</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N6" t="n">
-        <v>152.0359209225804</v>
+        <v>259.3170588514806</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,16 +35176,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
-        <v>316.9893628657432</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>145.1867114541996</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716065</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724859</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>649.1725445714751</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997113</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>378.489200211608</v>
+        <v>376.5742837087293</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649841</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659168</v>
+        <v>78.41684924923074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797556</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.5118838817659</v>
+        <v>85.95534635440495</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>247.1701735776332</v>
+        <v>232.2375037413478</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918831</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640774</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516606</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835692</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,7 +37944,7 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
@@ -37953,10 +37953,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708371</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>202.034550438951</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
@@ -38190,10 +38190,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
